--- a/Capstone Report/Report5_Test Case Document.xlsx
+++ b/Capstone Report/Report5_Test Case Document.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="267">
   <si>
     <t>SYSTEM TEST CASE</t>
   </si>
@@ -279,11 +279,16 @@
     <t>Create post without audio and video record</t>
   </si>
   <si>
-    <t>1. Enter title and content
-2. Press "Post" button</t>
+    <t>1. User opens mobile application
+2. User logins to application
+3. User chooses tab "Xin chào Việt Nam
+4. User presses create post button
+5. User enters title and content
+6. User presses "Post" button</t>
   </si>
   <si>
-    <t>1. User must create post success</t>
+    <t>1. Display message "success"
+2. Navigate to news feed screen</t>
   </si>
   <si>
     <t>AnhND</t>
@@ -295,9 +300,14 @@
     <t>Create post with audio or video record</t>
   </si>
   <si>
-    <t>1. User enter title and content
-2. User choose record audio or video option
-3. User press "Post" button</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User presses create post button
+5. User enter title and content
+6. User choose record audio or video option
+7. User record video or audio
+8. User press "Post" button</t>
   </si>
   <si>
     <t xml:space="preserve">Create Post-2 </t>
@@ -306,11 +316,14 @@
     <t>Create post with blank title or content</t>
   </si>
   <si>
-    <t>1. User press "Post" button without enter title and content</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User presses create post button
+5. User press "Post" button without enter title and content</t>
   </si>
   <si>
-    <t>1. User must create post failed
-2. Show message  "title is required" and "content is required" to user</t>
+    <t>1. Display message  "title is required" and "content is required" to user</t>
   </si>
   <si>
     <t>Create Post-3</t>
@@ -319,8 +332,12 @@
     <t>Press exit button while user is creating post</t>
   </si>
   <si>
-    <t>1. User enter infomation for post
-2. User press exit button</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User presses create post button
+5. User enter infomation for post
+6. User press exit button</t>
   </si>
   <si>
     <t>1. Show confirm exit dialog to user</t>
@@ -335,12 +352,19 @@
     <t>Edit entire post</t>
   </si>
   <si>
-    <t>1. User re-enter title and content
-2. User change audio record or video record
-3. User press "Save" button</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User chooses "My posts" tab
+5. User presses on a post
+6. User chooses edit post option on menu
+7. User re-enters title and content
+8. User changes audio record or video record
+9. User presses "Save" button</t>
   </si>
   <si>
-    <t>1. User must edit post success</t>
+    <t>1. Navigate to detail screen of edited post
+2. Edited informations of post must be updated</t>
   </si>
   <si>
     <t>Edit Post-1</t>
@@ -349,8 +373,18 @@
     <t>Edit audio record or video record of post</t>
   </si>
   <si>
-    <t>1.User change audio record or video record
-2. User press "Save" button</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User chooses "My posts" tab
+5. User presses on a post
+6. User choose edit post option on menu
+7. User changes audio record or video record
+8. User presses "Save" button</t>
+  </si>
+  <si>
+    <t>1. Navigate to detail screen of edited post
+2. Edited audio or video of post must be updated</t>
   </si>
   <si>
     <t>Edit Post-2</t>
@@ -359,12 +393,17 @@
     <t>Edit title and content of post to blank</t>
   </si>
   <si>
-    <t>1. User change title and content of post to blank
-2. User press "Save" button</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User chooses "My posts" tab
+5. User presses on a post
+6. User chooses edit post option on menu
+7. User re-enters title and content to blank
+8. User presses "Save" button</t>
   </si>
   <si>
-    <t>1. User must edit post failed
-2. Show message  "title is required" and "content is required" to user</t>
+    <t>2. Show message  "title is required" and "content is required" to user</t>
   </si>
   <si>
     <t>Edit Post-3</t>
@@ -373,8 +412,13 @@
     <t>Press exit button while user is editing post</t>
   </si>
   <si>
-    <t>1. User edit infomation for post
-2. User press exit button</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User chooses "My posts" tab
+5. User presses on a post
+6. User chooses edit post option on menu
+7. User presses exit button</t>
   </si>
   <si>
     <t>Funtion News Feed</t>
@@ -386,10 +430,13 @@
     <t>Display entire posts</t>
   </si>
   <si>
-    <t>1. User choose "All posts" on tab bar</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User chooses "All posts" on tab bar</t>
   </si>
   <si>
-    <t>1. Display all posts to user</t>
+    <t>1. Display all posts to user on news feed screen with "All posts" tab</t>
   </si>
   <si>
     <t>News feed-1</t>
@@ -398,10 +445,13 @@
     <t>Display user posts</t>
   </si>
   <si>
-    <t>1. User choose "My posts" on tab bar</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User chooses "My posts" on tab bar</t>
   </si>
   <si>
-    <t>1. Display user posts to user</t>
+    <t>1. Display all posts of user on news feed screen with "My posts" tab</t>
   </si>
   <si>
     <t>News feed-2</t>
@@ -410,7 +460,10 @@
     <t>Display empty news feed</t>
   </si>
   <si>
-    <t>1. User choose "All posts" or "My posts" on tab bar</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User chooses "My posts" or "All post" on tab bar</t>
   </si>
   <si>
     <t>1. Display messages "No post here" and "Pull to refresh"</t>
@@ -425,7 +478,10 @@
     <t>View post detail with comments</t>
   </si>
   <si>
-    <t>1. User choose a post from news feed.</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User chooses a post from news feed</t>
   </si>
   <si>
     <t>1. Display post title, content and comments of post</t>
@@ -450,12 +506,16 @@
     <t>Comment post with audio</t>
   </si>
   <si>
-    <t>1. Enter comment into comment text box
-2. Press "Record Audio" button to record audio
-3. Press "Send" button</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab ""Xin chào Việt Nam"
+4. User presses on a post
+5. User enters a comment into comment text box
+6. User presses "Record Audio" button to record audio
+7. User presses "Send" button</t>
   </si>
   <si>
-    <t>1. User must create comment success</t>
+    <t>1. Display a new comment in a post</t>
   </si>
   <si>
     <t>Comment-1</t>
@@ -464,8 +524,12 @@
     <t>Comment post without audio</t>
   </si>
   <si>
-    <t>1. Enter comment into comment text box
-2. Press "Send" button</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab ""Xin chào Việt Nam"
+4. User presses on a post
+5. User enters a comment into comment text box
+6. User presses "Send" button</t>
   </si>
   <si>
     <t xml:space="preserve">Comment-2 </t>
@@ -474,11 +538,14 @@
     <t>Comment post with blank comment</t>
   </si>
   <si>
-    <t>1. User press "Send" button without enter comment into comment text box</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab ""Xin chào Việt Nam"
+4. User presses on a post
+5. User presses "Send" button to send comment with empty comment box</t>
   </si>
   <si>
-    <t>1. User must create comment failed
-2. Display message "please write your comment"</t>
+    <t>1. Display message "please write your comment"</t>
   </si>
   <si>
     <t>Funtion Notification</t>
@@ -490,7 +557,10 @@
     <t>View all notification</t>
   </si>
   <si>
-    <t>1. User press "Notification" button</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab ""Xin chào Việt Nam"
+4. User presses "Notification" button</t>
   </si>
   <si>
     <t>1. Display infomantion of all notifications</t>
@@ -499,13 +569,17 @@
     <t>Notification-1</t>
   </si>
   <si>
-    <t>View infomation of a notification</t>
+    <t>View details of a notification</t>
   </si>
   <si>
-    <t>1. User choose a notifcation</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab ""Xin chào Việt Nam"
+4. User presses "Notification" button
+5. User presses on a notification</t>
   </si>
   <si>
-    <t>1. Display post that has been notify to user</t>
+    <t>1. Display post that belong to this notification</t>
   </si>
   <si>
     <t>Funtion Search Post by title</t>
@@ -517,17 +591,27 @@
     <t>Search exist posts</t>
   </si>
   <si>
-    <t>1. User enter on search box
-2. User press "Search"</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab ""Xin chào Việt Nam"
+4. User enters search key works on search box (For example: "Hello")
+5. User presses "Search"</t>
   </si>
   <si>
-    <t>1. Display list of posts which contains search words</t>
+    <t>1. Display list of posts which contains search key words</t>
   </si>
   <si>
     <t>Search Post-1</t>
   </si>
   <si>
     <t>Search non-exist posts</t>
+  </si>
+  <si>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab ""Xin chào Việt Nam"
+4. User enters search key works on search box (For example: "ABC", "aaa", "")
+5. User presses "Search"</t>
   </si>
   <si>
     <t>1. Display message "We did not find any results"</t>
@@ -542,11 +626,16 @@
     <t>Delete post</t>
   </si>
   <si>
-    <t>1. User choose delete post option
-2. User press "Cofirm delete"</t>
+    <t>1. User opens mobile application
+2. User logins to mobile application
+3. User chooses tab "Xin chào Việt Nam"
+4. User chooses tab "My posts"
+5. User chooses a post
+6. User chooses delete post option
+7. User presses "Cofirm delete"</t>
   </si>
   <si>
-    <t>1. User must delete post success
+    <t>1. Display message "delete success"
 2. Navigate to News Feed screen</t>
   </si>
   <si>
@@ -842,12 +931,15 @@
     <t>Login with exist username and password</t>
   </si>
   <si>
-    <t>1. Enter exist username and password
-2. Press "Sign In' button</t>
+    <t>1. User opens mobile application
+2. User enters existence username and password
+3. User presses "Sign In' button</t>
   </si>
   <si>
-    <t>1. User must be login success
-2. Must show lessons screen</t>
+    <t>1. Display lesson screen with bottom navigation bar</t>
+  </si>
+  <si>
+    <t>Test account is: username :"haihl" , password: "haihl"</t>
   </si>
   <si>
     <t>Login-1</t>
@@ -856,11 +948,9 @@
     <t xml:space="preserve">Login with Facebook </t>
   </si>
   <si>
-    <t>1. User press on Facebook button
-2. Choose Facebook account to login</t>
-  </si>
-  <si>
-    <t>1. User must be login success</t>
+    <t>1. User opens mobile application
+2. User presses on Login with Facebook button
+3. User chooses Facebook account to login</t>
   </si>
   <si>
     <t>Login-2</t>
@@ -869,8 +959,9 @@
     <t>Login with Google</t>
   </si>
   <si>
-    <t>1. User press on Google button
-2. Choose Google account to login</t>
+    <t>1. User opens mobile application
+2. User presses on Login with Gmail button
+3. User chooses Gmail account to login</t>
   </si>
   <si>
     <t>Login-3</t>
@@ -879,12 +970,15 @@
     <t>Login with username and password which does not exist</t>
   </si>
   <si>
-    <t>1. User enter non-exist username and password
-2. Press "Sign in" button</t>
+    <t>1. User opens mobile application
+2. User enters non-existence username and password
+3. User presses "Sign in" button</t>
   </si>
   <si>
-    <t>1. User must be login fail
-2. Show message to user "Incorrect username or password"</t>
+    <t>1. Display message to user "Incorrect username or password"</t>
+  </si>
+  <si>
+    <t>Test account is: username :"abc" , password: "aaa"</t>
   </si>
   <si>
     <t>Login-4</t>
@@ -893,12 +987,15 @@
     <t>Login with new account</t>
   </si>
   <si>
-    <t>1. User login with new account
-2. Press "Sign In" button</t>
+    <t>1. User opens mobile application
+2. User enters new username and password
+3. User presses "Sign In" button</t>
   </si>
   <si>
-    <t>1. User must be login success
-2. Must show choose level screen</t>
+    <t>1. Navigate to choose level screen</t>
+  </si>
+  <si>
+    <t>Test account is: username :"haihlt" , password: "12345678"</t>
   </si>
   <si>
     <t>Funtion Register</t>
@@ -910,11 +1007,13 @@
     <t>Sign up valid account</t>
   </si>
   <si>
-    <t>1. User enter username, password, email and choose nation
-2. Press "Sign up" button</t>
+    <t>1. User opens mobile application
+2. User presses on "create new account" on login screen
+3. User enters username, password, email and choose nation
+4. User presses "Sign up" button</t>
   </si>
   <si>
-    <t>1. Sign up must be success
+    <t>1. Display message "Sign up success"
 2. Navigate to login screen</t>
   </si>
   <si>
@@ -924,12 +1023,16 @@
     <t>Sign up with an existed account</t>
   </si>
   <si>
-    <t>1.User enter a existed username
-2. Press "Sign Up" button</t>
+    <t>1. User opens mobile application
+2. User presses on "create new account" on login screen
+3. User enters existed username, password, email and choose nation
+4. User presses "Sign up" button</t>
   </si>
   <si>
-    <t>1. Sign up must be fail
-2. Show message to user "Username already existed!"</t>
+    <t>1. Display message to user "Username already existed!"</t>
+  </si>
+  <si>
+    <t>Input "haihl" on username text field</t>
   </si>
   <si>
     <t>Register-3</t>
@@ -938,12 +1041,13 @@
     <t>Sign up with invalid data</t>
   </si>
   <si>
-    <t>1. User enter all field but pasword has less than 8 characters or more than 20 characters and  email has wrong format.
-2. Press "Sign Up" button.</t>
+    <t>1. User opens mobile application
+2. User presses on "create new account" on login screen
+3. User enters all field but pasword has less than 8 characters or more than 20 characters and  email has wrong format.
+4. User presses "Sign Up" button.</t>
   </si>
   <si>
-    <t>1. Sign up must be fail
-2. Show message to user "Invalid Email" or "Password must from 8 to 20 characters"</t>
+    <t>1. Display message to user "Invalid Email" or "Password must from 8 to 20 characters"</t>
   </si>
   <si>
     <t>Register-4</t>
@@ -952,12 +1056,12 @@
     <t>Sign up with blank field</t>
   </si>
   <si>
-    <t>1. User does not enter data to sign up form.
-2. Press "Sign Up" button</t>
+    <t>1. User opens mobile application
+2. User presses on "create new account" on login screen
+3. User presses "Sign Up" button with out enters any field.</t>
   </si>
   <si>
-    <t>1. Sign up must be fail
-2. Show message to user "Please fill all the required field"</t>
+    <t>1. Display message to user "Please fill all the required field"</t>
   </si>
   <si>
     <t>TEST REPORT</t>
@@ -17105,7 +17209,7 @@
       <c r="Y9" s="85"/>
       <c r="Z9" s="85"/>
     </row>
-    <row r="10" ht="54.0" customHeight="1">
+    <row r="10" ht="93.75" customHeight="1">
       <c r="A10" s="108" t="s">
         <v>58</v>
       </c>
@@ -17149,7 +17253,7 @@
       <c r="Y10" s="114"/>
       <c r="Z10" s="114"/>
     </row>
-    <row r="11" ht="57.75" customHeight="1">
+    <row r="11" ht="144.0" customHeight="1">
       <c r="A11" s="108" t="s">
         <v>63</v>
       </c>
@@ -17193,7 +17297,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" ht="57.75" customHeight="1">
+    <row r="12" ht="120.75" customHeight="1">
       <c r="A12" s="117" t="s">
         <v>66</v>
       </c>
@@ -17237,7 +17341,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
     </row>
-    <row r="13" ht="75.0" customHeight="1">
+    <row r="13" ht="110.25" customHeight="1">
       <c r="A13" s="122" t="s">
         <v>70</v>
       </c>
@@ -17311,7 +17415,7 @@
       <c r="Y14" s="85"/>
       <c r="Z14" s="85"/>
     </row>
-    <row r="15" ht="58.5" customHeight="1">
+    <row r="15" ht="177.75" customHeight="1">
       <c r="A15" s="122" t="s">
         <v>75</v>
       </c>
@@ -17355,18 +17459,18 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
     </row>
-    <row r="16" ht="40.5" customHeight="1">
+    <row r="16" ht="173.25" customHeight="1">
       <c r="A16" s="135" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="108" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E16" s="124" t="s">
         <v>46</v>
@@ -17399,18 +17503,18 @@
       <c r="Y16" s="136"/>
       <c r="Z16" s="136"/>
     </row>
-    <row r="17" ht="87.0" customHeight="1">
+    <row r="17" ht="153.75" customHeight="1">
       <c r="A17" s="135" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="112" t="s">
         <v>46</v>
@@ -17443,15 +17547,15 @@
       <c r="Y17" s="138"/>
       <c r="Z17" s="138"/>
     </row>
-    <row r="18" ht="48.75" customHeight="1">
+    <row r="18" ht="164.25" customHeight="1">
       <c r="A18" s="108" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="123" t="s">
         <v>73</v>
@@ -17489,7 +17593,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="129" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="130"/>
       <c r="C19" s="131"/>
@@ -17508,18 +17612,18 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" ht="29.25" customHeight="1">
+    <row r="20" ht="93.75" customHeight="1">
       <c r="A20" s="122" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="108" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="108" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="112" t="s">
         <v>46</v>
@@ -17543,18 +17647,18 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" ht="28.5" customHeight="1">
+    <row r="21" ht="93.0" customHeight="1">
       <c r="A21" s="139" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="123" t="s">
         <v>96</v>
       </c>
+      <c r="C21" s="108" t="s">
+        <v>97</v>
+      </c>
       <c r="D21" s="108" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="124" t="s">
         <v>46</v>
@@ -17578,18 +17682,18 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" ht="51.0" customHeight="1">
+    <row r="22" ht="99.75" customHeight="1">
       <c r="A22" s="139" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="123" t="s">
         <v>100</v>
       </c>
+      <c r="C22" s="108" t="s">
+        <v>101</v>
+      </c>
       <c r="D22" s="108" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E22" s="112" t="s">
         <v>46</v>
@@ -17615,7 +17719,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="104"/>
       <c r="C23" s="105"/>
@@ -17643,18 +17747,18 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" ht="30.0" customHeight="1">
+    <row r="24" ht="93.75" customHeight="1">
       <c r="A24" s="108" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" s="108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E24" s="111" t="s">
         <v>46</v>
@@ -17687,18 +17791,18 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" ht="39.0" customHeight="1">
+    <row r="25" ht="105.75" customHeight="1">
       <c r="A25" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E25" s="116" t="s">
         <v>46</v>
@@ -17733,7 +17837,7 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="103" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" s="104"/>
       <c r="C26" s="105"/>
@@ -17761,18 +17865,18 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
     </row>
-    <row r="27" ht="63.0" customHeight="1">
+    <row r="27" ht="147.75" customHeight="1">
       <c r="A27" s="108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" s="109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" s="108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" s="111" t="s">
         <v>46</v>
@@ -17805,18 +17909,18 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" ht="51.0" customHeight="1">
+    <row r="28" ht="146.25" customHeight="1">
       <c r="A28" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="110" t="s">
         <v>115</v>
-      </c>
-      <c r="B28" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="110" t="s">
-        <v>114</v>
       </c>
       <c r="E28" s="116" t="s">
         <v>46</v>
@@ -17849,18 +17953,18 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
     </row>
-    <row r="29" ht="59.25" customHeight="1">
+    <row r="29" ht="122.25" customHeight="1">
       <c r="A29" s="108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B29" s="108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" s="108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D29" s="110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E29" s="116" t="s">
         <v>46</v>
@@ -17895,7 +17999,7 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="141" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B30" s="142"/>
       <c r="C30" s="143"/>
@@ -17923,18 +18027,18 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
+    <row r="31" ht="87.0" customHeight="1">
       <c r="A31" s="108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" s="108" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E31" s="111" t="s">
         <v>46</v>
@@ -17967,18 +18071,18 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
+    <row r="32" ht="105.75" customHeight="1">
       <c r="A32" s="108" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="108" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" s="110" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" s="116" t="s">
         <v>46</v>
@@ -18013,7 +18117,7 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="141" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" s="142"/>
       <c r="C33" s="143"/>
@@ -18041,18 +18145,18 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
     </row>
-    <row r="34" ht="36.0" customHeight="1">
+    <row r="34" ht="109.5" customHeight="1">
       <c r="A34" s="108" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" s="108" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" s="110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E34" s="111" t="s">
         <v>46</v>
@@ -18085,18 +18189,18 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
     </row>
-    <row r="35" ht="36.0" customHeight="1">
+    <row r="35" ht="133.5" customHeight="1">
       <c r="A35" s="108" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" s="108" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E35" s="116" t="s">
         <v>46</v>
@@ -18131,7 +18235,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="141" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B36" s="142"/>
       <c r="C36" s="143"/>
@@ -18159,18 +18263,18 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
     </row>
-    <row r="37" ht="39.0" customHeight="1">
+    <row r="37" ht="128.25" customHeight="1">
       <c r="A37" s="108" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B37" s="109" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C37" s="108" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D37" s="110" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E37" s="111" t="s">
         <v>46</v>
@@ -24049,7 +24153,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -24299,16 +24403,16 @@
     </row>
     <row r="10" ht="66.0" customHeight="1">
       <c r="A10" s="108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B10" s="145" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C10" s="145" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D10" s="146" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E10" s="146" t="s">
         <v>46</v>
@@ -24320,7 +24424,7 @@
         <v>44164.0</v>
       </c>
       <c r="H10" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I10" s="112"/>
       <c r="J10" s="114"/>
@@ -24343,16 +24447,16 @@
     </row>
     <row r="11" ht="60.0" customHeight="1">
       <c r="A11" s="108" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D11" s="146" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E11" s="148" t="s">
         <v>46</v>
@@ -24364,7 +24468,7 @@
         <v>44164.0</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I11" s="112"/>
       <c r="J11" s="11"/>
@@ -24387,16 +24491,16 @@
     </row>
     <row r="12" ht="52.5" customHeight="1">
       <c r="A12" s="108" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="145" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D12" s="146" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E12" s="148" t="s">
         <v>46</v>
@@ -24408,7 +24512,7 @@
         <v>44164.0</v>
       </c>
       <c r="H12" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I12" s="112"/>
       <c r="J12" s="149"/>
@@ -24431,16 +24535,16 @@
     </row>
     <row r="13" ht="115.5" customHeight="1">
       <c r="A13" s="108" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" s="145" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D13" s="146" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" s="148" t="s">
         <v>46</v>
@@ -24452,7 +24556,7 @@
         <v>44164.0</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I13" s="151"/>
       <c r="J13" s="152"/>
@@ -24475,16 +24579,16 @@
     </row>
     <row r="14" ht="84.0" customHeight="1">
       <c r="A14" s="108" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C14" s="145" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D14" s="146" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>46</v>
@@ -24496,7 +24600,7 @@
         <v>44164.0</v>
       </c>
       <c r="H14" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I14" s="151"/>
       <c r="J14" s="152"/>
@@ -24549,16 +24653,16 @@
     </row>
     <row r="16" ht="49.5" customHeight="1">
       <c r="A16" s="108" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" s="108" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" s="108" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E16" s="108" t="s">
         <v>46</v>
@@ -24570,7 +24674,7 @@
         <v>44164.0</v>
       </c>
       <c r="H16" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I16" s="112"/>
       <c r="J16" s="11"/>
@@ -24593,16 +24697,16 @@
     </row>
     <row r="17" ht="100.5" customHeight="1">
       <c r="A17" s="108" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E17" s="108" t="s">
         <v>46</v>
@@ -24614,7 +24718,7 @@
         <v>44164.0</v>
       </c>
       <c r="H17" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I17" s="134"/>
       <c r="J17" s="149"/>
@@ -24637,16 +24741,16 @@
     </row>
     <row r="18" ht="100.5" customHeight="1">
       <c r="A18" s="108" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D18" s="108" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E18" s="108" t="s">
         <v>46</v>
@@ -24658,7 +24762,7 @@
         <v>44164.0</v>
       </c>
       <c r="H18" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I18" s="134"/>
       <c r="J18" s="152"/>
@@ -24681,16 +24785,16 @@
     </row>
     <row r="19" ht="138.75" customHeight="1">
       <c r="A19" s="108" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" s="108" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C19" s="108" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" s="108" t="s">
         <v>46</v>
@@ -24702,7 +24806,7 @@
         <v>44164.0</v>
       </c>
       <c r="H19" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I19" s="134"/>
       <c r="J19" s="152"/>
@@ -24725,16 +24829,16 @@
     </row>
     <row r="20" ht="129.0" customHeight="1">
       <c r="A20" s="158" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" s="159" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C20" s="108" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D20" s="160" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E20" s="108" t="s">
         <v>46</v>
@@ -24746,7 +24850,7 @@
         <v>44164.0</v>
       </c>
       <c r="H20" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I20" s="161"/>
       <c r="J20" s="152"/>
@@ -24769,16 +24873,16 @@
     </row>
     <row r="21" ht="129.0" customHeight="1">
       <c r="A21" s="108" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B21" s="159" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C21" s="108" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D21" s="108" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E21" s="108" t="s">
         <v>46</v>
@@ -24790,7 +24894,7 @@
         <v>44164.0</v>
       </c>
       <c r="H21" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I21" s="134"/>
       <c r="J21" s="152"/>
@@ -24843,16 +24947,16 @@
     </row>
     <row r="23" ht="47.25" customHeight="1">
       <c r="A23" s="108" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B23" s="108" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C23" s="108" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E23" s="108" t="s">
         <v>46</v>
@@ -24864,7 +24968,7 @@
         <v>44164.0</v>
       </c>
       <c r="H23" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I23" s="112"/>
       <c r="J23" s="11"/>
@@ -24887,16 +24991,16 @@
     </row>
     <row r="24" ht="103.5" customHeight="1">
       <c r="A24" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="108" t="s">
-        <v>190</v>
-      </c>
       <c r="C24" s="108" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E24" s="108" t="s">
         <v>46</v>
@@ -24908,7 +25012,7 @@
         <v>44164.0</v>
       </c>
       <c r="H24" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I24" s="134"/>
       <c r="J24" s="11"/>
@@ -24931,16 +25035,16 @@
     </row>
     <row r="25" ht="135.0" customHeight="1">
       <c r="A25" s="108" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B25" s="108" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C25" s="108" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D25" s="162" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E25" s="162" t="s">
         <v>46</v>
@@ -24952,7 +25056,7 @@
         <v>44164.0</v>
       </c>
       <c r="H25" s="162" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I25" s="164"/>
       <c r="J25" s="140"/>
@@ -24975,16 +25079,16 @@
     </row>
     <row r="26" ht="135.0" customHeight="1">
       <c r="A26" s="108" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B26" s="108" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C26" s="108" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D26" s="108" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E26" s="108" t="s">
         <v>46</v>
@@ -24996,7 +25100,7 @@
         <v>44164.0</v>
       </c>
       <c r="H26" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I26" s="165"/>
       <c r="J26" s="140"/>
@@ -25049,16 +25153,16 @@
     </row>
     <row r="28" ht="75.0" customHeight="1">
       <c r="A28" s="108" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B28" s="108" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C28" s="108" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E28" s="108" t="s">
         <v>46</v>
@@ -25070,7 +25174,7 @@
         <v>44164.0</v>
       </c>
       <c r="H28" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I28" s="112"/>
       <c r="J28" s="11"/>
@@ -25093,16 +25197,16 @@
     </row>
     <row r="29" ht="168.0" customHeight="1">
       <c r="A29" s="108" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B29" s="108" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C29" s="108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E29" s="108" t="s">
         <v>46</v>
@@ -25114,7 +25218,7 @@
         <v>44164.0</v>
       </c>
       <c r="H29" s="108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I29" s="112"/>
       <c r="J29" s="11"/>
@@ -25137,16 +25241,16 @@
     </row>
     <row r="30" ht="115.5" customHeight="1">
       <c r="A30" s="166" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B30" s="166" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C30" s="166" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D30" s="166" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E30" s="166" t="s">
         <v>46</v>
@@ -25158,7 +25262,7 @@
         <v>44164.0</v>
       </c>
       <c r="H30" s="166" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I30" s="168"/>
       <c r="J30" s="11"/>
@@ -31620,7 +31724,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -31840,7 +31944,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="104" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B9" s="104"/>
       <c r="C9" s="105"/>
@@ -31870,16 +31974,16 @@
     </row>
     <row r="10" ht="54.0" customHeight="1">
       <c r="A10" s="112" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B10" s="177" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="111" t="s">
         <v>219</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>221</v>
       </c>
       <c r="E10" s="111" t="s">
         <v>46</v>
@@ -31891,9 +31995,11 @@
         <v>44163.0</v>
       </c>
       <c r="H10" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="112"/>
+        <v>151</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>222</v>
+      </c>
       <c r="J10" s="114"/>
       <c r="K10" s="115"/>
       <c r="L10" s="114"/>
@@ -31912,18 +32018,18 @@
       <c r="Y10" s="114"/>
       <c r="Z10" s="114"/>
     </row>
-    <row r="11" ht="43.5" customHeight="1">
+    <row r="11" ht="72.0" customHeight="1">
       <c r="A11" s="112" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B11" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="110" t="s">
         <v>221</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>223</v>
       </c>
       <c r="E11" s="116" t="s">
         <v>46</v>
@@ -31935,7 +32041,7 @@
         <v>44163.0</v>
       </c>
       <c r="H11" s="112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I11" s="112"/>
       <c r="J11" s="11"/>
@@ -31956,18 +32062,18 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" ht="42.0" customHeight="1">
+    <row r="12" ht="69.0" customHeight="1">
       <c r="A12" s="120" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="119" t="s">
-        <v>223</v>
+        <v>227</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>221</v>
       </c>
       <c r="E12" s="119" t="s">
         <v>46</v>
@@ -31979,9 +32085,8 @@
         <v>44163.0</v>
       </c>
       <c r="H12" s="120" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" s="120"/>
+        <v>151</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="115"/>
       <c r="L12" s="11"/>
@@ -32002,16 +32107,16 @@
     </row>
     <row r="13" ht="75.0" customHeight="1">
       <c r="A13" s="126" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>231</v>
       </c>
       <c r="D13" s="123" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E13" s="124" t="s">
         <v>46</v>
@@ -32023,9 +32128,11 @@
         <v>44163.0</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" s="126"/>
+        <v>151</v>
+      </c>
+      <c r="I13" s="108" t="s">
+        <v>233</v>
+      </c>
       <c r="J13" s="127"/>
       <c r="K13" s="128"/>
       <c r="L13" s="127"/>
@@ -32046,16 +32153,16 @@
     </row>
     <row r="14" ht="75.0" customHeight="1">
       <c r="A14" s="126" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="C14" s="123" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="123" t="s">
+        <v>237</v>
       </c>
       <c r="E14" s="124" t="s">
         <v>46</v>
@@ -32067,9 +32174,11 @@
         <v>44163.0</v>
       </c>
       <c r="H14" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="126"/>
+        <v>151</v>
+      </c>
+      <c r="I14" s="108" t="s">
+        <v>238</v>
+      </c>
       <c r="J14" s="178"/>
       <c r="K14" s="179"/>
       <c r="L14" s="178"/>
@@ -32090,7 +32199,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="130" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B15" s="130"/>
       <c r="C15" s="131"/>
@@ -32118,18 +32227,18 @@
       <c r="Y15" s="85"/>
       <c r="Z15" s="85"/>
     </row>
-    <row r="16" ht="58.5" customHeight="1">
+    <row r="16" ht="86.25" customHeight="1">
       <c r="A16" s="126" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B16" s="112" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>243</v>
       </c>
       <c r="E16" s="112" t="s">
         <v>46</v>
@@ -32162,18 +32271,18 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
     </row>
-    <row r="17" ht="40.5" customHeight="1">
+    <row r="17" ht="87.75" customHeight="1">
       <c r="A17" s="180" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="112" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>247</v>
       </c>
       <c r="E17" s="124" t="s">
         <v>46</v>
@@ -32187,7 +32296,9 @@
       <c r="H17" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="124"/>
+      <c r="I17" s="123" t="s">
+        <v>248</v>
+      </c>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
       <c r="L17" s="136"/>
@@ -32206,18 +32317,18 @@
       <c r="Y17" s="136"/>
       <c r="Z17" s="136"/>
     </row>
-    <row r="18" ht="87.0" customHeight="1">
+    <row r="18" ht="141.0" customHeight="1">
       <c r="A18" s="112" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B18" s="112" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="112" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>252</v>
       </c>
       <c r="E18" s="112" t="s">
         <v>46</v>
@@ -32250,18 +32361,18 @@
       <c r="Y18" s="138"/>
       <c r="Z18" s="138"/>
     </row>
-    <row r="19" ht="48.75" customHeight="1">
+    <row r="19" ht="117.0" customHeight="1">
       <c r="A19" s="112" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="112" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="112" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>256</v>
       </c>
       <c r="E19" s="112" t="s">
         <v>46</v>
@@ -38748,7 +38859,7 @@
     <row r="1" ht="25.5" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="181" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -38887,7 +38998,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="188"/>
       <c r="H5" s="191" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -38911,10 +39022,10 @@
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" s="184"/>
       <c r="B6" s="190" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C6" s="192" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -39030,7 +39141,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="196" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D10" s="197" t="s">
         <v>39</v>
@@ -39045,7 +39156,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="199" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -39214,7 +39325,7 @@
       <c r="A14" s="194"/>
       <c r="B14" s="206"/>
       <c r="C14" s="207" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D14" s="208">
         <f t="shared" ref="D14:H14" si="1">SUM(D9:D13)</f>
@@ -39287,7 +39398,7 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="213">
@@ -39295,7 +39406,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="100"/>
@@ -39322,7 +39433,7 @@
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="213">
@@ -39330,7 +39441,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="100"/>
